--- a/public/exportdata.xlsx
+++ b/public/exportdata.xlsx
@@ -545,7 +545,7 @@
         <v>10:57</v>
       </c>
       <c r="G4" t="str">
-        <v>Usmon</v>
+        <v>Niyatbek</v>
       </c>
       <c r="H4">
         <v>120000</v>
@@ -560,7 +560,7 @@
         <v>2023-01-29T05:57:34.933Z</v>
       </c>
       <c r="L4" t="str">
-        <v>2023-01-29T05:57:34.933Z</v>
+        <v>2023-01-29T11:46:32.532Z</v>
       </c>
       <c r="M4">
         <v>0</v>

--- a/public/exportdata.xlsx
+++ b/public/exportdata.xlsx
@@ -451,7 +451,7 @@
         <v>Hojiakbar Rayimberdiyev</v>
       </c>
       <c r="C2">
-        <v>888323345454</v>
+        <v>885557777</v>
       </c>
       <c r="D2" t="str">
         <v>Xorazm Xonqa Amudaryo Saxiylar28</v>
@@ -478,7 +478,7 @@
         <v>2023-01-26T11:35:36.674Z</v>
       </c>
       <c r="L2" t="str">
-        <v>2023-01-26T11:35:36.674Z</v>
+        <v>2023-01-29T12:12:02.404Z</v>
       </c>
       <c r="M2">
         <v>0</v>

--- a/public/exportdata.xlsx
+++ b/public/exportdata.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,22 +445,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>63d26588dd6bb8c90c2cc7fb</v>
+        <v>63d3a47ef75fc4eb3afc550c</v>
       </c>
       <c r="B2" t="str">
         <v>Hojiakbar Rayimberdiyev</v>
       </c>
       <c r="C2">
-        <v>885557777</v>
+        <v>88201434</v>
       </c>
       <c r="D2" t="str">
         <v>Xorazm Xonqa Amudaryo Saxiylar28</v>
       </c>
       <c r="E2" t="str">
-        <v>2023-01-26</v>
+        <v>2023-01-27</v>
       </c>
       <c r="F2" t="str">
-        <v>16:35</v>
+        <v>15:16</v>
       </c>
       <c r="G2" t="str">
         <v>Usmon</v>
@@ -472,13 +472,13 @@
         <v>Santexnik</v>
       </c>
       <c r="J2" t="str">
-        <v>Telefonda</v>
+        <v>Online</v>
       </c>
       <c r="K2" t="str">
-        <v>2023-01-26T11:35:36.674Z</v>
+        <v>2023-01-27T10:16:30.707Z</v>
       </c>
       <c r="L2" t="str">
-        <v>2023-01-29T12:12:02.404Z</v>
+        <v>2023-02-03T09:37:24.730Z</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>63d3a47ef75fc4eb3afc550c</v>
+        <v>63d60acebf731f124e2445e7</v>
       </c>
       <c r="B3" t="str">
         <v>Hojiakbar Rayimberdiyev</v>
@@ -498,28 +498,28 @@
         <v>Xorazm Xonqa Amudaryo Saxiylar28</v>
       </c>
       <c r="E3" t="str">
-        <v>2023-01-27</v>
+        <v>2023-01-29</v>
       </c>
       <c r="F3" t="str">
-        <v>15:16</v>
+        <v>10:57</v>
       </c>
       <c r="G3" t="str">
-        <v>Usmon</v>
+        <v>Niyatbek</v>
       </c>
       <c r="H3">
-        <v>123000</v>
+        <v>120000</v>
       </c>
       <c r="I3" t="str">
-        <v>Santexnik</v>
+        <v>Elektirik</v>
       </c>
       <c r="J3" t="str">
-        <v>Online</v>
+        <v>Telefonda</v>
       </c>
       <c r="K3" t="str">
-        <v>2023-01-27T10:16:30.707Z</v>
+        <v>2023-01-29T05:57:34.933Z</v>
       </c>
       <c r="L3" t="str">
-        <v>2023-01-27T10:16:30.707Z</v>
+        <v>2023-02-03T09:38:12.865Z</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -527,22 +527,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>63d60acebf731f124e2445e7</v>
+        <v>63dbce4d72f0d582a2ee617e</v>
       </c>
       <c r="B4" t="str">
-        <v>Hojiakbar Rayimberdiyev</v>
+        <v>Khojiakbar Rayimberdiyev</v>
       </c>
       <c r="C4">
-        <v>88201434</v>
+        <v>882033236</v>
       </c>
       <c r="D4" t="str">
         <v>Xorazm Xonqa Amudaryo Saxiylar28</v>
       </c>
       <c r="E4" t="str">
-        <v>2023-01-29</v>
+        <v>2023-02-02</v>
       </c>
       <c r="F4" t="str">
-        <v>10:57</v>
+        <v>19:52</v>
       </c>
       <c r="G4" t="str">
         <v>Niyatbek</v>
@@ -554,21 +554,62 @@
         <v>Elektirik</v>
       </c>
       <c r="J4" t="str">
-        <v>Telefonda</v>
+        <v>Ofisga kelib</v>
       </c>
       <c r="K4" t="str">
-        <v>2023-01-29T05:57:34.933Z</v>
+        <v>2023-02-02T14:53:01.548Z</v>
       </c>
       <c r="L4" t="str">
-        <v>2023-01-29T11:46:32.532Z</v>
+        <v>2023-02-03T09:36:40.481Z</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>63df7494a4de7e582d1fea26</v>
+      </c>
+      <c r="B5" t="str">
+        <v>bloblboblbo</v>
+      </c>
+      <c r="C5">
+        <v>887778899</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Xorazm Xonqa Amudaryo Saxiylar28</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2023-02-05</v>
+      </c>
+      <c r="F5" t="str">
+        <v>14:19</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Usmon</v>
+      </c>
+      <c r="H5">
+        <v>123000</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Elektirik</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Online</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2023-02-05T09:19:16.325Z</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2023-02-05T09:19:16.325Z</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M5"/>
   </ignoredErrors>
 </worksheet>
 </file>